--- a/Lab/Lab Report Tracking Sheet.xlsx
+++ b/Lab/Lab Report Tracking Sheet.xlsx
@@ -178,10 +178,8 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -189,6 +187,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,139 +483,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Lab/Lab Report Tracking Sheet.xlsx
+++ b/Lab/Lab Report Tracking Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Black Rod</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Not Nessisary</t>
-  </si>
-  <si>
-    <t>**** To avoid fuckups, each time you update this table, make a new sheet. Label it with you name and time/date. This should help us stay organized.</t>
   </si>
 </sst>
 </file>
@@ -472,7 +469,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,9 +612,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="A11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
